--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -47,88 +47,127 @@
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8287:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>ببرونه صغير الجو</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:10</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8287:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>ببرونه صغير الجو</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>32:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>محلول جلوكوز 5%</t>
@@ -137,13 +176,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>Friday, 12 September, 2025 11:37 AM</t>
+    <t>Friday, 12 September, 2025 12:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -801,7 +834,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -810,14 +843,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -827,14 +860,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -843,14 +876,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -860,14 +893,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -876,14 +909,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -893,14 +926,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -922,18 +955,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -942,20 +975,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -966,7 +999,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -982,24 +1015,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1008,66 +1041,198 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>209</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>44</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>36</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>50</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>36</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>37</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>52</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>36</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>37</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>54</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>36</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>47</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>273.92000000000002</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>55</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>56</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>57</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1281,30 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -176,7 +176,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 12:40 PM</t>
+    <t>Friday, 12 September, 2025 12:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -146,6 +158,21 @@
     <t>32:0</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
@@ -161,9 +188,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -176,7 +200,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 12:43 PM</t>
+    <t>Friday, 12 September, 2025 1:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -988,15 +1012,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1008,20 +1032,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1054,15 +1078,15 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1074,28 +1098,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1120,18 +1144,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1140,28 +1164,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1173,66 +1197,132 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>273.92000000000002</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>55</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>60</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>40</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>41</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>62</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>40</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>56</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>57</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>375.92000000000002</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>63</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>64</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>65</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1301,10 +1391,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -200,7 +200,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 1:49 PM</t>
+    <t>Friday, 12 September, 2025 1:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -140,16 +140,31 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>بامبرز رقم 1</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>330.0000</t>
+  </si>
+  <si>
     <t>ببرونه صغير الجو</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2 سم</t>
@@ -161,24 +176,15 @@
     <t>حبايه</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
@@ -200,7 +206,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 1:57 PM</t>
+    <t>Friday, 12 September, 2025 1:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1115,14 +1121,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1131,14 +1137,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1148,14 +1154,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1171,7 +1177,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1181,14 +1187,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1197,14 +1203,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1214,11 +1220,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1230,14 +1236,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1280,49 +1286,82 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>375.92000000000002</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>63</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>64</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>40</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>58</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>725.91999999999996</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
         <v>65</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>66</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>67</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1401,10 +1440,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -206,7 +206,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 1:59 PM</t>
+    <t>Friday, 12 September, 2025 2:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -206,7 +215,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 2:29 PM</t>
+    <t>Friday, 12 September, 2025 2:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1045,21 +1054,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1071,28 +1080,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1104,31 +1113,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1137,31 +1146,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1170,31 +1179,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1210,13 +1219,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1227,7 +1236,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1243,21 +1252,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1269,28 +1278,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1302,66 +1311,99 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>725.91999999999996</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>65</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>66</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>67</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>43</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>61</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>756.91999999999996</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>68</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>69</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>70</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1445,10 +1487,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 2:37 PM</t>
+    <t>Friday, 12 September, 2025 2:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -101,33 +101,54 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8287:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8287:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -173,9 +194,6 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -200,6 +218,24 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -215,7 +251,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 2:40 PM</t>
+    <t>Friday, 12 September, 2025 4:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1057,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1031,11 +1067,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1047,7 +1083,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1064,14 +1100,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1080,28 +1116,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1113,28 +1149,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1146,31 +1182,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1179,28 +1215,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1219,24 +1255,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1245,28 +1281,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1285,24 +1321,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1311,28 +1347,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1344,66 +1380,198 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>756.91999999999996</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>71</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>72</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>50</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>73</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>54</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>50</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>51</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>77</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>50</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>51</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>78</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>79</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>50</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>67</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>68</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>69</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>70</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>933.91999999999996</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>80</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>81</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>82</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1492,10 +1660,30 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -134,13 +143,16 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8287:0</t>
+    <t>8285:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -206,9 +218,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
@@ -251,7 +260,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 4:56 PM</t>
+    <t>Friday, 12 September, 2025 5:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1024,7 +1033,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1034,11 +1043,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1050,14 +1059,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1067,11 +1076,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1083,14 +1092,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1100,14 +1109,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1116,14 +1125,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1133,14 +1142,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1149,14 +1158,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1166,14 +1175,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1195,15 +1204,15 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1215,20 +1224,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1261,7 +1270,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1272,7 +1281,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1294,18 +1303,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1314,31 +1323,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1347,7 +1356,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1360,18 +1369,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1387,13 +1396,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1401,7 +1410,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1413,20 +1422,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1434,7 +1443,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1446,28 +1455,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1479,28 +1488,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1512,66 +1521,99 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>933.91999999999996</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>80</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>81</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>82</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>54</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>70</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1029.9200000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>83</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>84</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>85</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1680,10 +1722,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -212,6 +212,18 @@
     <t>32:0</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -239,12 +251,6 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -260,7 +266,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 5:00 PM</t>
+    <t>Friday, 12 September, 2025 5:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1363,7 +1369,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1373,14 +1379,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1389,14 +1395,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1406,14 +1412,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1422,14 +1428,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1439,11 +1445,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1455,14 +1461,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1472,11 +1478,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1495,7 +1501,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1505,11 +1511,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1521,14 +1527,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1571,49 +1577,82 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1029.9200000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>83</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>84</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>54</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>74</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1054.9200000000001</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
         <v>85</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>86</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>87</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1727,10 +1766,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -44,21 +44,51 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
     <t>46.0000</t>
   </si>
   <si>
+    <t>C-RETARD 500MG 10 CAPS</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -101,6 +131,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -140,6 +182,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -185,9 +239,6 @@
     <t>بامبرز رقم 1</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>330.00</t>
   </si>
   <si>
@@ -266,7 +317,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 5:31 PM</t>
+    <t>Friday, 12 September, 2025 5:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -940,7 +991,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -950,11 +1001,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -966,14 +1017,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -983,14 +1034,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -999,14 +1050,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1016,14 +1067,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1032,14 +1083,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1049,11 +1100,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1065,14 +1116,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1082,14 +1133,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1098,14 +1149,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1115,14 +1166,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1131,14 +1182,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1148,14 +1199,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1164,14 +1215,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1188,7 +1239,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1197,14 +1248,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1214,11 +1265,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1230,28 +1281,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1263,31 +1314,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1296,31 +1347,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1329,31 +1380,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1362,28 +1413,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1395,31 +1446,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1428,28 +1479,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1461,31 +1512,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1494,28 +1545,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1527,28 +1578,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1560,31 +1611,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1593,66 +1644,231 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1054.9200000000001</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>85</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>93</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>67</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>72</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>94</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>96</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>72</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>86</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>87</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>97</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>23</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>72</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>73</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>99</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>72</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>73</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>101</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>72</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>91</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1586.9200000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>102</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>103</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>104</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1771,10 +1987,35 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>CERELAC رز و حديد</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -80,9 +95,6 @@
     <t>DAFLON 1000MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>285.00</t>
   </si>
   <si>
@@ -116,6 +128,9 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>FATARATO MOUTH REFRESHING SPRAY</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -227,9 +242,6 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -254,9 +266,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -293,9 +302,6 @@
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>قصافات كبار</t>
   </si>
   <si>
@@ -317,7 +323,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 5:40 PM</t>
+    <t>Friday, 12 September, 2025 5:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -991,21 +997,21 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1017,7 +1023,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1034,11 +1040,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1050,14 +1056,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1067,11 +1073,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1083,14 +1089,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1140,7 +1146,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1149,14 +1155,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1166,14 +1172,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1182,14 +1188,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1199,11 +1205,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1215,14 +1221,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1232,14 +1238,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1248,14 +1254,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1265,11 +1271,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1281,14 +1287,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1298,11 +1304,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1314,14 +1320,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1338,7 +1344,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1347,14 +1353,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1364,11 +1370,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1380,14 +1386,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1397,14 +1403,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1413,14 +1419,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1430,11 +1436,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1446,31 +1452,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1479,28 +1485,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1512,31 +1518,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1545,28 +1551,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1578,31 +1584,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1611,31 +1617,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1644,28 +1650,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1677,31 +1683,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1710,28 +1716,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1743,28 +1749,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1776,28 +1782,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1809,66 +1815,132 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1586.9200000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>100</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>101</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>18</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>77</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>102</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>103</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>18</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>94</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1666.9200000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
         <v>104</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>105</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>106</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2012,10 +2084,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -197,6 +197,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -323,7 +335,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 5:42 PM</t>
+    <t>Friday, 12 September, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1443,7 +1455,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1476,7 +1488,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1485,14 +1497,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1502,14 +1514,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1531,7 +1543,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1558,7 +1570,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1568,11 +1580,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1584,14 +1596,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1605,10 +1617,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1617,14 +1629,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,14 +1662,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1667,11 +1679,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1690,7 +1702,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1700,14 +1712,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,14 +1728,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1733,14 +1745,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1749,14 +1761,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1766,11 +1778,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1782,14 +1794,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1799,11 +1811,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1815,14 +1827,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1832,11 +1844,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1848,14 +1860,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1865,11 +1877,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1881,14 +1893,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1898,49 +1910,82 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1666.9200000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>104</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>105</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>106</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>107</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>18</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>98</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1684.9200000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>108</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>109</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>110</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2094,10 +2139,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 5:43 PM</t>
+    <t>Friday, 12 September, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -179,12 +179,33 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -239,9 +260,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -335,7 +353,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 5:45 PM</t>
+    <t>Friday, 12 September, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1372,7 +1390,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1382,11 +1400,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1398,7 +1416,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1415,14 +1433,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1438,7 +1456,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1448,11 +1466,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>46</v>
@@ -1464,14 +1482,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1481,14 +1499,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1497,14 +1515,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1514,14 +1532,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1530,14 +1548,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1547,11 +1565,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1563,31 +1581,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1596,28 +1614,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1629,14 +1647,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1646,14 +1664,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1669,7 +1687,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1679,11 +1697,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1695,14 +1713,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1712,14 +1730,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1735,7 +1753,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1745,14 +1763,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1768,7 +1786,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1778,11 +1796,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1794,14 +1812,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1811,14 +1829,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1827,14 +1845,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1844,11 +1862,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1860,14 +1878,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1877,11 +1895,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1893,14 +1911,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1910,11 +1928,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1926,14 +1944,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1943,49 +1961,115 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1684.9200000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>108</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>109</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>110</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>111</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>18</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>87</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>112</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>113</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>18</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>104</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1836.9200000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>114</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>115</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>116</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2144,10 +2228,20 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -353,7 +353,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 6:17 PM</t>
+    <t>Friday, 12 September, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -128,6 +128,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>EUTHYROX 50MCG 50 TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>FATARATO MOUTH REFRESHING SPRAY</t>
   </si>
   <si>
@@ -167,12 +173,18 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -221,15 +233,9 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -353,7 +359,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 6:31 PM</t>
+    <t>Friday, 12 September, 2025 6:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1225,7 +1231,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1235,11 +1241,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1251,14 +1257,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1268,14 +1274,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1284,14 +1290,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1301,14 +1307,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1317,14 +1323,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1334,11 +1340,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1350,14 +1356,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1367,11 +1373,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1383,14 +1389,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1400,11 +1406,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1416,14 +1422,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1433,11 +1439,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1449,14 +1455,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1466,14 +1472,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1482,14 +1488,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1499,14 +1505,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1515,14 +1521,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1532,14 +1538,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1548,14 +1554,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,14 +1571,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1581,14 +1587,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1598,14 +1604,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1614,14 +1620,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1631,11 +1637,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1647,31 +1653,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1680,28 +1686,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1713,14 +1719,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1730,14 +1736,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1746,14 +1752,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1763,11 +1769,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1779,14 +1785,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1796,14 +1802,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1812,14 +1818,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1829,14 +1835,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,14 +1851,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1862,11 +1868,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1878,14 +1884,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1895,14 +1901,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1911,14 +1917,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1928,11 +1934,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1944,14 +1950,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1961,11 +1967,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1977,14 +1983,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1994,11 +2000,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2010,14 +2016,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2027,49 +2033,115 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1836.9200000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>112</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>113</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>18</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>89</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>114</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>115</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>18</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>106</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1938.9200000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
         <v>116</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>117</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>118</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2238,10 +2310,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -359,7 +359,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 6:32 PM</t>
+    <t>Friday, 12 September, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -191,6 +191,18 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
@@ -266,9 +278,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -335,6 +344,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>سيتي بيبي رقم 3</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -359,7 +377,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 6:34 PM</t>
+    <t>Friday, 12 September, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1479,7 +1497,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1495,7 +1513,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1505,11 +1523,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1521,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1538,14 +1556,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1554,14 +1572,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1571,14 +1589,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1594,7 +1612,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1608,10 +1626,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1620,14 +1638,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1637,11 +1655,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1677,7 +1695,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1686,14 +1704,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1710,7 +1728,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1719,28 +1737,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1752,14 +1770,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1792,7 +1810,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1802,14 +1820,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1835,14 +1853,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1851,14 +1869,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1868,11 +1886,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1905,10 +1923,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1917,14 +1935,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1934,14 +1952,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1957,7 +1975,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1967,11 +1985,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2000,11 +2018,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2016,14 +2034,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2033,11 +2051,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2066,11 +2084,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2082,14 +2100,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2099,49 +2117,115 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1938.9200000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>116</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>117</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>118</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>119</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>18</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>92</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>120</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>121</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>18</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>109</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2144.2800000000002</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>122</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>123</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>124</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2320,10 +2404,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -215,12 +227,27 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -233,9 +260,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>62.0000</t>
   </si>
   <si>
@@ -377,7 +401,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 6:42 PM</t>
+    <t>Friday, 12 September, 2025 6:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1084,21 +1108,21 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1110,7 +1134,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1127,11 +1151,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1143,14 +1167,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1160,11 +1184,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1176,14 +1200,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1233,7 +1257,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1242,14 +1266,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1259,14 +1283,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1275,14 +1299,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1292,11 +1316,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1308,14 +1332,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1325,14 +1349,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1341,14 +1365,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1358,14 +1382,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>50</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1381,7 +1405,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1391,11 +1415,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1407,14 +1431,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1424,11 +1448,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1440,14 +1464,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1457,11 +1481,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1473,14 +1497,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1497,7 +1521,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1530,7 +1554,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1546,7 +1570,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1556,11 +1580,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1572,14 +1596,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1589,14 +1613,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1605,14 +1629,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1622,14 +1646,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1645,7 +1669,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,14 +1679,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1678,7 +1702,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1688,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1704,14 +1728,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,14 +1745,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,14 +1761,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,11 +1778,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1770,28 +1794,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1803,31 +1827,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,31 +1860,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,14 +1893,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,11 +1910,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1909,7 +1933,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1919,11 +1943,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1935,14 +1959,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1956,10 +1980,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1975,7 +1999,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1985,11 +2009,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2001,14 +2025,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2041,7 +2065,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2051,14 +2075,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2067,14 +2091,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2084,11 +2108,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2100,14 +2124,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2117,11 +2141,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2150,11 +2174,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2166,14 +2190,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2183,49 +2207,148 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2144.2800000000002</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>122</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>123</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>124</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>125</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>17</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>18</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>100</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>126</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>127</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>18</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>100</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>128</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>129</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>18</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>117</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2233.2800000000002</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>130</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>131</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>132</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2414,10 +2537,25 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>285.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -167,9 +182,6 @@
     <t>FLEXILAX 30 F.C.TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>84.00</t>
   </si>
   <si>
@@ -401,7 +413,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 6:44 PM</t>
+    <t>Friday, 12 September, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1257,7 +1269,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1266,14 +1278,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1283,14 +1295,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1316,14 +1328,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1332,14 +1344,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1349,11 +1361,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1365,14 +1377,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1382,14 +1394,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1422,7 +1434,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1431,14 +1443,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1448,11 +1460,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1464,14 +1476,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1481,11 +1493,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1497,14 +1509,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1514,11 +1526,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1530,14 +1542,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1554,7 +1566,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1587,7 +1599,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1603,7 +1615,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1613,11 +1625,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1629,14 +1641,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1646,11 +1658,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1662,14 +1674,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1679,14 +1691,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1695,14 +1707,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1712,14 +1724,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1728,14 +1740,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1745,14 +1757,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1761,14 +1773,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1778,14 +1790,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1794,14 +1806,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1811,11 +1823,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1851,7 +1863,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,14 +1889,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1893,24 +1905,24 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1933,7 +1945,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1943,11 +1955,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1959,14 +1971,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1980,10 +1992,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1992,14 +2004,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2009,14 +2021,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2025,14 +2037,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2042,11 +2054,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2065,7 +2077,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2075,14 +2087,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2108,14 +2120,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2141,11 +2153,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2174,11 +2186,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2190,14 +2202,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2207,11 +2219,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2240,11 +2252,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2273,11 +2285,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2289,14 +2301,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2306,49 +2318,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2233.2800000000002</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>130</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>131</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>132</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>133</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>18</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>121</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2250.2800000000002</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>134</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>135</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>136</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2552,10 +2597,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -116,7 +116,7 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>3:3</t>
   </si>
   <si>
     <t>85.00</t>
@@ -188,6 +188,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>HEPTA PANTHENOL PLUS CARBAMIDE 50MG CREAM</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -413,7 +422,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 6:45 PM</t>
+    <t>Friday, 12 September, 2025 6:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1483,13 +1492,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1516,7 +1525,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1582,7 +1591,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1592,14 +1601,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1608,14 +1617,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1625,14 +1634,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1641,14 +1650,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1681,7 +1690,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1691,11 +1700,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1707,14 +1716,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1724,14 +1733,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1740,14 +1749,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1757,14 +1766,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1780,7 +1789,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1790,14 +1799,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1813,7 +1822,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1823,14 +1832,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1839,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1860,7 +1869,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1872,14 +1881,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1889,14 +1898,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1905,14 +1914,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1922,14 +1931,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1938,28 +1947,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1971,14 +1980,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2011,7 +2020,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2021,14 +2030,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2054,14 +2063,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2087,11 +2096,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2103,14 +2112,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2124,10 +2133,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2136,14 +2145,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2153,14 +2162,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2176,7 +2185,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2209,7 +2218,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2219,11 +2228,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2252,11 +2261,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2285,11 +2294,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2301,14 +2310,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2318,11 +2327,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2334,14 +2343,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2351,49 +2360,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2250.2800000000002</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>134</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>135</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
         <v>136</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>18</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>124</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2349.2800000000002</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>137</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>138</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>139</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2602,10 +2644,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -167,9 +179,6 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -269,6 +278,15 @@
     <t>3:1</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -290,9 +308,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -305,6 +320,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -389,6 +413,21 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 3</t>
   </si>
   <si>
@@ -422,7 +461,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 6:47 PM</t>
+    <t>Friday, 12 September, 2025 7:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1311,7 +1350,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1344,7 +1383,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1353,14 +1392,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1370,14 +1409,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1386,14 +1425,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1403,11 +1442,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1419,14 +1458,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1436,14 +1475,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1452,14 +1491,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1469,14 +1508,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1492,13 +1531,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1525,13 +1564,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1558,7 +1597,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1591,7 +1630,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1624,7 +1663,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1634,14 +1673,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1650,14 +1689,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1667,14 +1706,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1683,14 +1722,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1723,7 +1762,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1733,11 +1772,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1749,14 +1788,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1766,14 +1805,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1782,14 +1821,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1799,14 +1838,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1822,7 +1861,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1832,14 +1871,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1855,7 +1894,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1869,10 +1908,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1881,14 +1920,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1898,14 +1937,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1921,7 +1960,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1931,14 +1970,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1947,14 +1986,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1964,11 +2003,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1980,31 +2019,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2013,31 +2052,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2046,31 +2085,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2079,14 +2118,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2096,11 +2135,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2119,7 +2158,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2129,11 +2168,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2145,14 +2184,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2166,10 +2205,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2185,7 +2224,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2195,11 +2234,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2211,14 +2250,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2251,7 +2290,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2261,14 +2300,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2277,14 +2316,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2294,11 +2333,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2310,7 +2349,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2327,11 +2366,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2343,14 +2382,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2360,11 +2399,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2376,14 +2415,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2393,49 +2432,214 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2349.2800000000002</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>137</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>138</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>139</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>142</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>79</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>18</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>19</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>143</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>144</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>18</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>127</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>145</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>17</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>18</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>115</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>146</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>147</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>18</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>115</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>148</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>149</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>18</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>132</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2442.9899999999998</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>150</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>151</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>152</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2649,10 +2853,35 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -86,6 +98,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -125,9 +149,6 @@
     <t>17.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -152,6 +173,21 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -302,9 +338,6 @@
     <t>62.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -341,9 +374,6 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -413,12 +443,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t>سويت افوفا</t>
   </si>
   <si>
@@ -461,7 +494,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 7:25 PM</t>
+    <t>Friday, 12 September, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1168,24 +1201,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1201,21 +1234,21 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1227,14 +1260,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1244,14 +1277,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1260,14 +1293,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1277,11 +1310,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1293,14 +1326,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1310,14 +1343,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1333,7 +1366,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1343,14 +1376,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1359,14 +1392,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1376,14 +1409,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1392,14 +1425,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1409,14 +1442,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1425,14 +1458,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1442,11 +1475,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1465,7 +1498,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1475,14 +1508,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1491,14 +1524,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1508,14 +1541,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1524,14 +1557,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1541,11 +1574,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1557,7 +1590,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1570,15 +1603,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1590,14 +1623,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1607,14 +1640,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1623,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1640,11 +1673,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1656,28 +1689,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1689,14 +1722,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1706,14 +1739,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1722,14 +1755,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1739,11 +1772,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1755,14 +1788,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1772,11 +1805,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1788,14 +1821,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1805,14 +1838,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1821,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1838,14 +1871,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1854,14 +1887,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1871,11 +1904,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1887,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1904,14 +1937,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1920,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1937,14 +1970,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1953,7 +1986,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1970,11 +2003,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1986,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2003,14 +2036,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2019,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2036,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2052,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2069,14 +2102,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2085,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2102,11 +2135,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2118,20 +2151,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2142,7 +2175,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2158,24 +2191,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2184,31 +2217,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2234,11 +2267,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2250,14 +2283,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2267,11 +2300,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2283,14 +2316,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2300,14 +2333,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2316,14 +2349,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2333,11 +2366,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2349,14 +2382,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2366,11 +2399,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2382,14 +2415,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2399,14 +2432,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2415,14 +2448,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2432,11 +2465,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2448,14 +2481,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2465,14 +2498,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2481,14 +2514,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2498,14 +2531,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2514,14 +2547,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2531,11 +2564,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2547,14 +2580,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2564,11 +2597,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2580,14 +2613,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2597,49 +2630,181 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2442.9899999999998</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>150</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>151</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>152</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>154</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>155</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>18</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>137</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>156</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>17</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>18</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>125</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>157</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>158</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>18</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>125</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>159</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>160</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>18</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>142</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2691.7199999999998</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>161</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>162</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>163</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2878,10 +3043,30 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CERELAC رز و حديد</t>
   </si>
   <si>
@@ -83,9 +98,6 @@
     <t>26.7300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -137,6 +149,18 @@
     <t>285.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -155,12 +179,6 @@
     <t>5:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -176,9 +194,6 @@
     <t>EPICEPHIN 1 GM I.M. VIAL</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -260,6 +275,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -344,13 +368,13 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
+    <t>52.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -446,7 +470,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -494,7 +518,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 7:32 PM</t>
+    <t>Friday, 12 September, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1174,18 +1198,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1201,24 +1225,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1227,20 +1251,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1251,7 +1275,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1273,7 +1297,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1284,7 +1308,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1300,7 +1324,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1310,14 +1334,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1326,7 +1350,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1343,11 +1367,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1359,14 +1383,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1376,11 +1400,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1392,14 +1416,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1416,7 +1440,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1449,7 +1473,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1482,7 +1506,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1508,14 +1532,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1524,14 +1548,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1541,14 +1565,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1557,14 +1581,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1574,14 +1598,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1590,14 +1614,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1607,14 +1631,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1623,14 +1647,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,14 +1664,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1663,7 +1687,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1673,11 +1697,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1689,31 +1713,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1722,14 +1746,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1739,11 +1763,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1755,28 +1779,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1788,14 +1812,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1805,11 +1829,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1821,14 +1845,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,14 +1862,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1854,14 +1878,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,14 +1895,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1887,14 +1911,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,11 +1928,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1920,14 +1944,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,14 +1961,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1953,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,14 +1994,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1986,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,11 +2027,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2019,14 +2043,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2036,14 +2060,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2059,7 +2083,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,14 +2093,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2102,11 +2126,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2118,14 +2142,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,14 +2159,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,14 +2175,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,14 +2192,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2191,7 +2215,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2217,14 +2241,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2250,31 +2274,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2283,31 +2307,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2316,31 +2340,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,28 +2373,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2389,21 +2413,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2415,20 +2439,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2436,10 +2460,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2455,21 +2479,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2481,31 +2505,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,31 +2538,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>91</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2547,28 +2571,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2580,31 +2604,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2613,31 +2637,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2646,28 +2670,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2679,28 +2703,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2712,28 +2736,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2745,66 +2769,165 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2691.7199999999998</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>161</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>162</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>163</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>164</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>22</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>23</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>133</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>165</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>166</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>23</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>133</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>167</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>168</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>23</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>150</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2778.1300000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>169</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>170</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>171</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3063,10 +3186,25 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -275,6 +275,9 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -470,7 +473,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -482,9 +488,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 3</t>
   </si>
   <si>
@@ -518,7 +521,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 7:38 PM</t>
+    <t>Friday, 12 September, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1885,7 +1888,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1895,14 +1898,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1911,14 +1914,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1928,14 +1931,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1944,14 +1947,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1961,14 +1964,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1977,14 +1980,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1994,14 +1997,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2010,14 +2013,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2027,11 +2030,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2043,14 +2046,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2060,11 +2063,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2076,14 +2079,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2093,14 +2096,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2109,14 +2112,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2126,14 +2129,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2142,14 +2145,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2159,14 +2162,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2175,14 +2178,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2192,14 +2195,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2208,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2225,14 +2228,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2248,7 +2251,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2258,14 +2261,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2274,14 +2277,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,14 +2294,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2307,14 +2310,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2324,14 +2327,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,14 +2343,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2357,14 +2360,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2373,28 +2376,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2406,14 +2409,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2423,11 +2426,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2439,14 +2442,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2456,14 +2459,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2472,14 +2475,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2489,14 +2492,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2505,14 +2508,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2522,11 +2525,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2538,14 +2541,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2555,14 +2558,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2571,14 +2574,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2588,14 +2591,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2604,14 +2607,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2621,14 +2624,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2637,7 +2640,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2654,14 +2657,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>99</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2670,14 +2673,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2687,14 +2690,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2703,14 +2706,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2720,11 +2723,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2736,14 +2739,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2753,11 +2756,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2776,7 +2779,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2786,11 +2789,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2802,14 +2805,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2819,11 +2822,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2842,7 +2845,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2852,11 +2855,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2868,14 +2871,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2885,49 +2888,82 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>168</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>169</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>23</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>151</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2778.1300000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>169</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2834.1300000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
         <v>170</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
         <v>171</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>172</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3201,10 +3237,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -44,15 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -521,7 +530,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 7:46 PM</t>
+    <t>Friday, 12 September, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1195,7 +1204,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1205,14 +1214,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1221,31 +1230,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1254,20 +1263,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1278,7 +1287,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1294,24 +1303,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1320,31 +1329,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1353,14 +1362,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1377,7 +1386,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1426,7 +1435,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1459,7 +1468,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1469,14 +1478,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1485,14 +1494,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1502,14 +1511,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1518,14 +1527,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1535,14 +1544,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1608,7 +1617,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1667,14 +1676,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1700,11 +1709,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1733,14 +1742,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1766,14 +1775,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1789,13 +1798,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1822,13 +1831,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1855,7 +1864,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1888,7 +1897,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1898,11 +1907,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1954,7 +1963,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1987,7 +1996,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2030,14 +2039,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2086,7 +2095,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2096,11 +2105,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2185,7 +2194,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2202,7 +2211,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2350,7 +2359,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2409,28 +2418,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2442,20 +2451,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2482,24 +2491,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2521,18 +2530,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2541,28 +2550,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2574,20 +2583,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2595,10 +2604,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2607,31 +2616,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2647,24 +2656,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2680,24 +2689,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>100</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2706,31 +2715,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2739,28 +2748,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2779,21 +2788,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2805,28 +2814,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2838,28 +2847,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2871,28 +2880,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2904,66 +2913,99 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2834.1300000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>170</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>171</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
         <v>172</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>26</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>154</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2892.1300000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>173</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>174</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>175</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3242,10 +3284,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -530,7 +530,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 7:52 PM</t>
+    <t>Friday, 12 September, 2025 7:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -104,7 +104,10 @@
     <t>81.00</t>
   </si>
   <si>
-    <t>26.7300</t>
+    <t>107.7300</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>CEVA-FRESH TAB</t>
@@ -530,7 +533,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 7:53 PM</t>
+    <t>Friday, 12 September, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1303,7 +1306,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1320,7 +1323,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1329,14 +1332,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1346,11 +1349,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1362,14 +1365,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1379,11 +1382,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>23</v>
@@ -1395,7 +1398,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1412,11 +1415,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1428,7 +1431,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1445,11 +1448,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1461,7 +1464,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1478,11 +1481,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1494,14 +1497,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1511,11 +1514,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>23</v>
@@ -1527,14 +1530,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1544,11 +1547,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>23</v>
@@ -1560,14 +1563,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1577,11 +1580,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>23</v>
@@ -1593,14 +1596,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1610,11 +1613,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1626,7 +1629,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1643,14 +1646,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1659,14 +1662,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1676,14 +1679,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1692,14 +1695,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1709,11 +1712,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1725,7 +1728,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1758,14 +1761,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1775,14 +1778,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1791,7 +1794,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1808,11 +1811,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1824,7 +1827,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1841,11 +1844,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1857,7 +1860,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1874,11 +1877,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1890,14 +1893,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1907,11 +1910,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1923,7 +1926,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1940,11 +1943,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1956,14 +1959,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1973,11 +1976,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>23</v>
@@ -1989,14 +1992,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2006,11 +2009,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2022,14 +2025,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2039,11 +2042,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2055,14 +2058,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2072,11 +2075,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2088,14 +2091,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2105,11 +2108,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2121,14 +2124,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2138,11 +2141,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2154,14 +2157,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2171,14 +2174,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2187,7 +2190,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2204,11 +2207,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2220,7 +2223,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2237,11 +2240,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2253,14 +2256,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2270,11 +2273,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2286,7 +2289,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2303,11 +2306,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2336,11 +2339,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2352,7 +2355,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2369,11 +2372,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2385,14 +2388,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2402,14 +2405,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2418,14 +2421,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2451,14 +2454,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2468,11 +2471,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2484,7 +2487,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2501,11 +2504,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2517,14 +2520,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2534,7 +2537,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2567,11 +2570,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2583,14 +2586,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2600,11 +2603,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2616,7 +2619,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2633,11 +2636,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2649,14 +2652,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2666,11 +2669,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2682,7 +2685,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2699,14 +2702,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2715,7 +2718,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2732,14 +2735,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2765,11 +2768,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2781,14 +2784,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2798,11 +2801,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2814,14 +2817,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2847,14 +2850,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2864,11 +2867,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2880,7 +2883,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2897,11 +2900,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2913,14 +2916,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2930,11 +2933,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2946,14 +2949,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2963,11 +2966,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -2975,13 +2978,13 @@
     </row>
     <row r="62" ht="25.5" customHeight="1">
       <c r="P62" s="13">
-        <v>2892.1300000000001</v>
+        <v>2973.1300000000001</v>
       </c>
       <c r="Q62" s="13"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c t="s" r="A63" s="14">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -2989,13 +2992,13 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c t="s" r="G63" s="15">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="16"/>
       <c t="s" r="K63" s="17">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -494,6 +494,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>سويت افوفا</t>
   </si>
   <si>
@@ -533,7 +542,16 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 7:56 PM</t>
+    <t xml:space="preserve">معطر جو FRIDA </t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>Friday, 12 September, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2758,7 +2776,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2772,10 +2790,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2801,11 +2819,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2824,7 +2842,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2834,11 +2852,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2850,14 +2868,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2867,11 +2885,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2900,11 +2918,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2966,49 +2984,115 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>175</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>176</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>26</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>155</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>156</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2973.1300000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>174</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>175</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>176</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>177</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>67</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>26</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>178</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3046.1300000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>180</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>181</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>182</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3292,10 +3376,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>CERELAC رز و حديد</t>
   </si>
   <si>
@@ -287,6 +296,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>KETOPREK 75 MG 20 CAPS.</t>
   </si>
   <si>
@@ -308,6 +326,24 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
@@ -479,9 +515,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -551,7 +584,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 8:05 PM</t>
+    <t>Friday, 12 September, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1291,24 +1324,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1317,20 +1350,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1341,7 +1374,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1350,31 +1383,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1383,31 +1416,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1416,14 +1449,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1440,7 +1473,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1489,7 +1522,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1522,7 +1555,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1532,14 +1565,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1548,14 +1581,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1565,11 +1598,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>23</v>
@@ -1581,14 +1614,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1598,11 +1631,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>23</v>
@@ -1614,14 +1647,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1631,14 +1664,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1647,14 +1680,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1671,7 +1704,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1680,14 +1713,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1697,14 +1730,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1713,14 +1746,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1730,14 +1763,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1746,14 +1779,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1763,11 +1796,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1779,14 +1812,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1796,14 +1829,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1812,14 +1845,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1829,14 +1862,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1852,13 +1885,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1885,13 +1918,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1918,7 +1951,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1951,7 +1984,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1961,11 +1994,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1977,14 +2010,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1994,11 +2027,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>23</v>
@@ -2010,14 +2043,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2027,11 +2060,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2060,11 +2093,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2076,14 +2109,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2093,11 +2126,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2109,14 +2142,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,14 +2159,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2142,14 +2175,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2159,14 +2192,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2175,14 +2208,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2192,14 +2225,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2208,14 +2241,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,11 +2258,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2241,14 +2274,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2258,14 +2291,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2274,14 +2307,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,14 +2324,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2307,14 +2340,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,14 +2357,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2340,14 +2373,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,14 +2390,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2373,14 +2406,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2390,11 +2423,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2406,14 +2439,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,14 +2456,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2446,7 +2479,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2456,11 +2489,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2472,31 +2505,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2505,31 +2538,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2538,31 +2571,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2578,21 +2611,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2617,7 +2650,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2644,13 +2677,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2658,10 +2691,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2670,31 +2703,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,31 +2736,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2743,24 +2776,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2769,28 +2802,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2802,28 +2835,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2835,31 +2868,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,31 +2901,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2901,31 +2934,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2934,28 +2967,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2967,28 +3000,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3000,28 +3033,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3033,66 +3066,198 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3046.1300000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>180</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>181</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>182</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>183</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>28</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>29</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>150</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>184</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>185</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>29</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>150</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>186</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>187</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>29</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>167</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>188</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>70</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>29</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>189</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3231.5300000000002</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>191</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>192</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>193</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3386,10 +3551,30 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>KETOPREK 75 MG 20 CAPS.</t>
   </si>
   <si>
@@ -407,6 +416,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -584,7 +602,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 8:08 PM</t>
+    <t>Friday, 12 September, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2060,11 +2078,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2116,7 +2134,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2126,14 +2144,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2149,7 +2167,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2166,7 +2184,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2182,7 +2200,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2215,7 +2233,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2225,11 +2243,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2258,14 +2276,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2314,7 +2332,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2324,11 +2342,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2340,14 +2358,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2357,14 +2375,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2390,14 +2408,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2413,7 +2431,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2430,7 +2448,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2446,7 +2464,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2456,14 +2474,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2489,11 +2507,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2505,14 +2523,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2522,11 +2540,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2538,7 +2556,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2588,14 +2606,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2621,14 +2639,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2650,7 +2668,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2661,7 +2679,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2677,21 +2695,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2743,7 +2761,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2753,11 +2771,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2786,14 +2804,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2809,7 +2827,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2842,7 +2860,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2852,11 +2870,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2868,7 +2886,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2918,14 +2936,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2934,7 +2952,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2951,14 +2969,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3000,14 +3018,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3017,14 +3035,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3033,14 +3051,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3050,11 +3068,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3066,14 +3084,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3083,11 +3101,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3099,14 +3117,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3116,11 +3134,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3149,11 +3167,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3165,14 +3183,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3182,11 +3200,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3198,14 +3216,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3215,49 +3233,115 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3231.5300000000002</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>191</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>192</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
         <v>193</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>29</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>173</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>194</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>70</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>29</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>195</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3343.5300000000002</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>197</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>198</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>199</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3571,10 +3655,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>EPICEPHIN 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -602,7 +611,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 8:45 PM</t>
+    <t>Friday, 12 September, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1738,7 +1747,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1755,7 +1764,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1847,11 +1856,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1936,13 +1945,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1969,13 +1978,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2002,7 +2011,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2035,7 +2044,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2052,7 +2061,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2068,7 +2077,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2085,7 +2094,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2111,11 +2120,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2144,14 +2153,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2167,7 +2176,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2200,7 +2209,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2217,7 +2226,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2233,7 +2242,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2266,7 +2275,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2276,11 +2285,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2365,7 +2374,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2375,11 +2384,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2408,14 +2417,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2464,7 +2473,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2481,7 +2490,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2497,7 +2506,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2514,7 +2523,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2530,7 +2539,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2646,7 +2655,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2662,7 +2671,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2721,28 +2730,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2794,7 +2803,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2870,11 +2879,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2907,10 +2916,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2919,14 +2928,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2936,14 +2945,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2969,14 +2978,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>119</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3018,7 +3027,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3072,10 +3081,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3101,11 +3110,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3124,7 +3133,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3134,11 +3143,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3150,14 +3159,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3167,11 +3176,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3183,14 +3192,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3200,11 +3209,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3216,14 +3225,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3233,11 +3242,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3266,11 +3275,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3299,49 +3308,82 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3343.5300000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>197</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>73</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>29</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>198</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>199</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3377.5300000000002</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>200</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>201</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>202</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3665,10 +3707,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -611,7 +611,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 8:50 PM</t>
+    <t>Friday, 12 September, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -611,7 +611,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 8:51 PM</t>
+    <t>Friday, 12 September, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -59,30 +59,36 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>102.0000</t>
   </si>
   <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>APEXIDONE 4MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -92,12 +98,24 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>BENDAX 100MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>CERELAC رز و حديد</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -230,9 +248,6 @@
     <t>180.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -248,6 +263,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>ESSENTIALE 300MG 30CAP</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>31.3500</t>
+  </si>
+  <si>
     <t>EUTHYROX 50MCG 50 TAB</t>
   </si>
   <si>
@@ -260,54 +284,69 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>7.9200</t>
+    <t>31.9200</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>HEPTA PANTHENOL PLUS CARBAMIDE 50MG CREAM</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>FLEXILAX 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>HEPTA PANTHENOL PLUS CARBAMIDE 50MG CREAM</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -392,7 +431,7 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>62.0000</t>
   </si>
   <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
@@ -407,6 +446,9 @@
     <t>3:1</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
@@ -422,9 +464,6 @@
     <t>160.00</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -437,9 +476,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -467,75 +503,78 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8285:0</t>
+    <t>8283:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بامبرز رقم 1</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>330.0000</t>
+  </si>
+  <si>
+    <t>ببرونه صغير الجو</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>امواس لورد</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بامبرز رقم 1</t>
-  </si>
-  <si>
-    <t>330.00</t>
-  </si>
-  <si>
-    <t>330.0000</t>
-  </si>
-  <si>
-    <t>ببرونه صغير الجو</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>32:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
@@ -554,6 +593,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -599,7 +641,7 @@
     <t>محلول جلوكوز 5%</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>54.0000</t>
   </si>
   <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
@@ -611,7 +653,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 8:57 PM</t>
+    <t>Friday, 12 September, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1285,7 +1327,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1295,14 +1337,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1311,14 +1353,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1328,14 +1370,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1344,14 +1386,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1361,14 +1403,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1377,31 +1419,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1410,14 +1452,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1427,14 +1469,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1443,28 +1485,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1476,14 +1518,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1493,14 +1535,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1509,28 +1551,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1542,14 +1584,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1566,7 +1608,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1582,7 +1624,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1615,7 +1657,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1625,14 +1667,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1641,14 +1683,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1658,14 +1700,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1674,14 +1716,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1691,14 +1733,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1731,7 +1773,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1747,7 +1789,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1757,14 +1799,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1773,14 +1815,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1797,7 +1839,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1806,14 +1848,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1823,14 +1865,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1839,14 +1881,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1856,14 +1898,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1872,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1889,14 +1931,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1905,31 +1947,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1938,14 +1980,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1955,11 +1997,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1978,21 +2020,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2004,14 +2046,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2021,14 +2063,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2044,7 +2086,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2077,13 +2119,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2094,7 +2136,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2110,7 +2152,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2143,7 +2185,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2153,11 +2195,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2169,14 +2211,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2186,14 +2228,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2202,14 +2244,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2219,14 +2261,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2235,14 +2277,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2252,14 +2294,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2268,14 +2310,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2285,14 +2327,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2301,14 +2343,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2318,14 +2360,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2341,7 +2383,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2351,11 +2393,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2367,14 +2409,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2384,14 +2426,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2400,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2417,14 +2459,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2450,14 +2492,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2466,14 +2508,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2483,11 +2525,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2499,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2516,14 +2558,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2532,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2549,11 +2591,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2565,14 +2607,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,14 +2624,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2598,7 +2640,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2611,15 +2653,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2631,14 +2673,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2648,14 +2690,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2664,14 +2706,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2681,14 +2723,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2704,7 +2746,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2714,14 +2756,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2730,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2747,14 +2789,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2763,28 +2805,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2796,31 +2838,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2829,28 +2871,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2862,31 +2904,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2895,28 +2937,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2928,31 +2970,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2961,28 +3003,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2994,31 +3036,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>179</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3027,31 +3069,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3067,24 +3109,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3093,31 +3135,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3126,28 +3168,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3159,31 +3201,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3192,31 +3234,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3225,31 +3267,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3258,28 +3300,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3291,28 +3333,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3324,66 +3366,231 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3377.5300000000002</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>200</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>201</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>202</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>204</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>205</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>35</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>183</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>206</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>30</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>35</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>171</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>207</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>208</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>35</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>171</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>209</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>182</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>35</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>189</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>211</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>33</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>35</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>212</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3797.54</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>214</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>215</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>216</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3712,10 +3919,35 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 9:16 PM</t>
+    <t>Friday, 12 September, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>ALPHATHROMB 5MG TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -101,9 +116,6 @@
     <t>BENDAX 100MG/5ML SUSP. 60ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -113,12 +125,21 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>CERELAC رز و حديد</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -293,9 +314,6 @@
     <t>31.9200</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>FLEXILAX 30 F.C.TAB</t>
   </si>
   <si>
@@ -365,13 +383,22 @@
     <t>KETOPREK 75 MG 20 CAPS.</t>
   </si>
   <si>
+    <t>LANZYPLEX 30 MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>63.8400</t>
   </si>
   <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
@@ -401,6 +428,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
@@ -446,6 +482,21 @@
     <t>3:1</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PEA 600 MG 20TAB</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -458,6 +509,18 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>9:3</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -584,15 +647,15 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>10:0</t>
   </si>
   <si>
@@ -653,7 +716,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 9:22 PM</t>
+    <t>Friday, 12 September, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1333,18 +1396,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1360,7 +1423,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1370,14 +1433,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1386,14 +1449,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1403,14 +1466,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1419,14 +1482,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1436,14 +1499,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1452,14 +1515,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1469,14 +1532,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1492,24 +1555,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1525,7 +1588,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1535,14 +1598,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1558,21 +1621,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1584,14 +1647,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1601,14 +1664,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1617,20 +1680,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1657,7 +1720,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1667,14 +1730,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1683,14 +1746,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1700,11 +1763,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1716,14 +1779,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1740,7 +1803,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1756,7 +1819,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1766,14 +1829,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1782,14 +1845,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,14 +1862,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1815,14 +1878,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1832,14 +1895,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1848,14 +1911,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1865,14 +1928,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1888,7 +1951,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1898,14 +1961,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1914,14 +1977,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1938,7 +2001,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1947,31 +2010,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1980,14 +2043,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1997,14 +2060,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2013,31 +2076,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2046,14 +2109,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2063,14 +2126,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2079,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2096,11 +2159,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2112,20 +2175,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2136,7 +2199,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2152,7 +2215,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2185,13 +2248,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2218,7 +2281,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2251,7 +2314,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2261,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2277,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2294,11 +2357,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2310,14 +2373,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2327,14 +2390,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2343,14 +2406,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2360,14 +2423,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2376,14 +2439,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2393,11 +2456,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2416,7 +2479,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2433,7 +2496,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2449,7 +2512,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2459,14 +2522,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2482,7 +2545,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2492,14 +2555,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2508,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2525,14 +2588,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2541,14 +2604,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2558,14 +2621,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2574,14 +2637,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,14 +2654,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2607,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2624,14 +2687,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2640,28 +2703,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2673,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2690,14 +2753,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2706,14 +2769,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2723,14 +2786,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2739,14 +2802,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2756,14 +2819,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2772,14 +2835,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2789,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2805,31 +2868,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2838,31 +2901,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2871,7 +2934,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2888,14 +2951,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,14 +2967,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,14 +2984,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2937,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2970,28 +3033,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3003,31 +3066,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3043,24 +3106,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3069,31 +3132,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3109,24 +3172,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3135,20 +3198,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3159,7 +3222,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3175,21 +3238,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3208,24 +3271,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,31 +3297,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>194</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3267,31 +3330,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,28 +3363,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3333,28 +3396,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3366,31 +3429,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3399,28 +3462,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3432,31 +3495,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3465,31 +3528,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3498,31 +3561,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3531,66 +3594,297 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3797.54</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>214</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>215</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>216</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>221</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>37</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>18</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>222</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>224</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>147</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>18</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>43</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>225</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>226</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>18</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>204</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>227</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>17</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>18</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>192</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>228</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>229</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>18</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>192</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>230</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>203</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>18</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>210</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>232</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>37</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>18</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>233</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4464.04</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>235</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>236</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>237</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3944,10 +4238,45 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -437,6 +437,12 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
@@ -545,13 +551,13 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>26.00</t>
   </si>
   <si>
-    <t>52.0000</t>
+    <t>78.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -716,7 +722,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 9:26 PM</t>
+    <t>Friday, 12 September, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2677,7 +2683,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,14 +2693,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2703,14 +2709,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2720,14 +2726,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2736,14 +2742,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2753,14 +2759,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2769,7 +2775,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2786,14 +2792,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2809,7 +2815,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,14 +2825,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2842,7 +2848,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,14 +2858,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2875,21 +2881,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2901,14 +2907,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2918,14 +2924,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2934,7 +2940,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2947,15 +2953,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2967,14 +2973,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,11 +2990,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3000,14 +3006,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,14 +3023,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3040,7 +3046,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3054,10 +3060,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,14 +3072,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,14 +3089,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3099,14 +3105,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3116,14 +3122,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3132,14 +3138,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3149,14 +3155,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3165,14 +3171,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,14 +3188,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3198,14 +3204,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,14 +3221,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>147</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3231,14 +3237,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,14 +3254,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3271,21 +3277,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3297,14 +3303,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,11 +3320,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3330,14 +3336,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,14 +3353,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,14 +3369,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3380,14 +3386,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3413,11 +3419,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3429,14 +3435,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3446,14 +3452,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3462,14 +3468,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,14 +3485,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3502,7 +3508,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3512,14 +3518,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>212</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3545,14 +3551,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>215</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3561,7 +3567,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3578,14 +3584,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3594,14 +3600,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3611,14 +3617,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3634,7 +3640,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3648,7 +3654,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3660,14 +3666,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3677,11 +3683,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3693,14 +3699,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,11 +3716,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3733,7 +3739,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3743,11 +3749,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3776,11 +3782,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3799,7 +3805,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3809,14 +3815,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3832,7 +3838,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3842,49 +3848,82 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>234</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4464.04</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>37</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>18</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
         <v>235</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>236</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4529.04</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
         <v>237</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>238</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>239</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4273,10 +4312,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -548,6 +548,15 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -722,7 +731,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 9:30 PM</t>
+    <t>Friday, 12 September, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3178,7 +3187,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3228,7 +3237,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3244,7 +3253,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>149</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3303,28 +3312,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3376,7 +3385,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3419,14 +3428,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3435,14 +3444,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3452,11 +3461,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3492,7 +3501,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3508,7 +3517,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3522,10 +3531,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3534,14 +3543,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3551,14 +3560,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>214</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3567,7 +3576,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3584,11 +3593,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>217</v>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>220</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3640,7 +3649,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3654,10 +3663,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3683,11 +3692,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3706,7 +3715,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3716,11 +3725,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3749,11 +3758,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3782,11 +3791,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3815,11 +3824,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3881,49 +3890,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4529.04</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>237</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>37</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>18</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
         <v>238</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>239</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4605.04</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>240</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>241</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>242</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4317,10 +4359,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -362,9 +374,6 @@
     <t>INTEGROL 10MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -731,7 +740,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 9:37 PM</t>
+    <t>Friday, 12 September, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2082,7 +2091,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2091,20 +2100,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2115,7 +2124,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2124,31 +2133,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2174,11 +2183,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2190,14 +2199,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2230,7 +2239,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2256,28 +2265,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2289,7 +2298,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2302,15 +2311,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2339,11 +2348,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2372,11 +2381,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2388,14 +2397,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2412,7 +2421,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2428,7 +2437,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2445,7 +2454,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2471,11 +2480,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2504,11 +2513,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2527,7 +2536,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2560,7 +2569,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2570,14 +2579,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2593,7 +2602,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2610,7 +2619,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2626,7 +2635,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2659,7 +2668,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2692,7 +2701,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2808,7 +2817,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2824,7 +2833,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2883,14 +2892,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,14 +2909,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2916,24 +2925,24 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2956,7 +2965,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2982,7 +2991,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2995,15 +3004,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3022,7 +3031,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3032,11 +3041,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3069,10 +3078,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3098,14 +3107,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3121,7 +3130,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3131,14 +3140,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3147,14 +3156,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,14 +3173,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3197,11 +3206,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3220,7 +3229,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,14 +3239,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3270,7 +3279,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3286,7 +3295,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>149</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3345,28 +3354,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3378,14 +3387,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3418,7 +3427,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,14 +3437,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,11 +3503,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3534,7 +3543,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3550,7 +3559,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3564,10 +3573,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>217</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,7 +3618,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3626,11 +3635,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>220</v>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>223</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3682,7 +3691,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3696,10 +3705,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,11 +3734,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3748,7 +3757,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3791,11 +3800,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3824,11 +3833,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3923,49 +3932,82 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4605.04</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>240</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>37</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>18</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>241</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>242</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4719.04</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>243</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>244</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>245</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4364,10 +4406,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -740,7 +740,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 9:38 PM</t>
+    <t>Friday, 12 September, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -191,6 +191,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>C-RETARD 500MG 10 CAPS</t>
   </si>
   <si>
@@ -236,9 +248,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -401,6 +410,12 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -449,9 +464,6 @@
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
@@ -530,9 +542,6 @@
     <t>9:3</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>42.0000</t>
   </si>
   <si>
@@ -569,13 +578,13 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>26.00</t>
   </si>
   <si>
-    <t>78.0000</t>
+    <t>104.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -629,9 +638,6 @@
     <t>ببرونه صغير الجو</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -740,7 +746,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 9:43 PM</t>
+    <t>Friday, 12 September, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1810,7 +1816,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1820,14 +1826,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1836,14 +1842,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1853,11 +1859,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1869,14 +1875,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1893,7 +1899,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1952,11 +1958,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1968,14 +1974,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1985,14 +1991,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2001,14 +2007,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2041,7 +2047,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2058,7 +2064,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2074,7 +2080,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2084,14 +2090,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2100,14 +2106,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2117,14 +2123,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2133,31 +2139,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2173,24 +2179,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2199,14 +2205,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2216,11 +2222,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2232,14 +2238,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2249,14 +2255,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2265,14 +2271,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2289,7 +2295,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2305,13 +2311,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2344,7 +2350,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2371,7 +2377,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2404,7 +2410,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2437,7 +2443,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2454,7 +2460,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2470,7 +2476,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2487,7 +2493,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2513,11 +2519,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2529,14 +2535,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2546,11 +2552,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2569,7 +2575,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2579,14 +2585,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2602,7 +2608,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2612,11 +2618,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2645,14 +2651,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2694,14 +2700,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2711,11 +2717,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2744,14 +2750,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2767,7 +2773,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2777,11 +2783,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2793,14 +2799,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2810,11 +2816,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2826,14 +2832,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2843,14 +2849,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2876,11 +2882,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2909,14 +2915,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2932,7 +2938,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2942,14 +2948,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2965,24 +2971,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2991,31 +2997,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3031,13 +3037,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3048,7 +3054,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3064,21 +3070,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3090,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3107,14 +3113,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3140,11 +3146,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3156,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3173,14 +3179,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3206,11 +3212,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3239,14 +3245,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3272,14 +3278,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3371,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3387,31 +3393,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3420,28 +3426,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3470,14 +3476,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3486,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3503,11 +3509,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3519,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3536,14 +3542,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3569,14 +3575,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3585,14 +3591,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3602,11 +3608,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3618,7 +3624,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3635,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>220</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>223</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3684,7 +3690,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3767,14 +3773,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3783,14 +3789,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3800,11 +3806,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3833,11 +3839,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3849,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3866,11 +3872,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3882,14 +3888,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3899,11 +3905,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3965,49 +3971,115 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>240</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>213</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>18</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>220</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>242</v>
       </c>
-      <c t="s" r="Q85" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4719.04</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>37</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>18</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
         <v>243</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>244</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4805.04</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
         <v>245</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>246</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>247</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4411,10 +4483,20 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -344,6 +344,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>HEPTA PANTHENOL PLUS CARBAMIDE 50MG CREAM</t>
   </si>
   <si>
@@ -671,9 +680,6 @@
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -683,27 +689,24 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سويت افوفا</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 3</t>
   </si>
   <si>
@@ -713,6 +716,18 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -746,7 +761,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 9:49 PM</t>
+    <t>Friday, 12 September, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2344,13 +2359,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2361,7 +2376,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2383,7 +2398,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2410,7 +2425,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2443,7 +2458,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2476,7 +2491,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2493,7 +2508,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2509,7 +2524,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2526,7 +2541,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2552,11 +2567,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2585,11 +2600,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2608,7 +2623,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2618,11 +2633,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2651,14 +2666,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2674,7 +2689,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2684,14 +2699,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2707,7 +2722,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2724,7 +2739,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2740,7 +2755,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2773,7 +2788,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2806,7 +2821,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2816,14 +2831,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2832,14 +2847,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2849,14 +2864,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,14 +2897,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2898,14 +2913,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2922,7 +2937,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2948,14 +2963,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +2996,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2997,14 +3012,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3029,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,24 +3045,24 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3070,7 +3085,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3080,14 +3095,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,7 +3111,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3109,15 +3124,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3136,7 +3151,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,7 +3161,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3169,7 +3184,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,14 +3194,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>62</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3195,14 +3210,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,14 +3227,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3235,7 +3250,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,14 +3260,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3261,14 +3276,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,14 +3293,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3294,14 +3309,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,11 +3326,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3334,7 +3349,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3359,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3384,7 +3399,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3400,7 +3415,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,14 +3425,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>156</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3426,14 +3441,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3458,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,28 +3474,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3492,14 +3507,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3532,7 +3547,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3546,10 +3561,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,14 +3573,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,14 +3590,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,14 +3606,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3608,11 +3623,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3624,14 +3639,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3648,7 +3663,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3664,7 +3679,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3678,10 +3693,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,14 +3705,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3707,14 +3722,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>222</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3740,14 +3755,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>224</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>225</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3756,7 +3771,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3773,14 +3788,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3789,14 +3804,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3806,14 +3821,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,14 +3837,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3839,11 +3854,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3855,14 +3870,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3872,11 +3887,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3905,11 +3920,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3921,14 +3936,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3938,11 +3953,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3954,14 +3969,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3971,11 +3986,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3987,14 +4002,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4004,14 +4019,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4020,14 +4035,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4037,49 +4052,115 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4805.04</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>245</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>216</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>18</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>112</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>246</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c t="s" r="Q88" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>247</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>37</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>18</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>248</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4883.8599999999997</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>250</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>251</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>252</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4493,10 +4574,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -761,7 +761,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 9:51 PM</t>
+    <t>Friday, 12 September, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -344,6 +344,12 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>FUNGICLEAR 200 MG 2 CAPSULE</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
     <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -761,7 +767,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 10:18 PM</t>
+    <t>Friday, 12 September, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2359,7 +2365,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2373,10 +2379,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2385,31 +2391,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2418,7 +2424,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2431,15 +2437,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2451,14 +2457,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2468,11 +2474,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2484,14 +2490,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2501,11 +2507,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2517,14 +2523,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2534,14 +2540,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2550,14 +2556,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2567,14 +2573,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2583,7 +2589,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2600,11 +2606,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2616,14 +2622,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2633,11 +2639,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2649,14 +2655,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2666,7 +2672,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2689,7 +2695,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2699,14 +2705,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2715,14 +2721,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2732,14 +2738,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2748,14 +2754,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2765,14 +2771,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2781,14 +2787,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2798,11 +2804,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2814,14 +2820,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2831,11 +2837,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2847,14 +2853,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2864,14 +2870,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2880,14 +2886,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2897,14 +2903,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2913,14 +2919,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2930,14 +2936,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2946,14 +2952,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2963,14 +2969,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2979,7 +2985,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2996,14 +3002,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3019,7 +3025,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,14 +3035,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3052,7 +3058,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,14 +3068,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3085,21 +3091,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3111,14 +3117,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,14 +3134,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3144,7 +3150,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3157,15 +3163,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3177,14 +3183,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,11 +3200,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3210,14 +3216,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,14 +3233,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3250,7 +3256,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3264,10 +3270,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3276,14 +3282,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,14 +3299,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3309,14 +3315,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3326,14 +3332,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3342,14 +3348,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3359,11 +3365,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3375,14 +3381,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,14 +3398,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3408,14 +3414,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3425,14 +3431,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,14 +3447,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3458,14 +3464,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>159</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3474,14 +3480,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3491,14 +3497,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3514,21 +3520,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3557,11 +3563,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3573,14 +3579,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3590,14 +3596,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3613,7 +3619,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3623,14 +3629,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3656,11 +3662,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3672,14 +3678,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3689,14 +3695,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3705,14 +3711,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3722,14 +3728,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>224</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3788,14 +3794,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>80</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3804,7 +3810,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3821,14 +3827,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,14 +3843,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3854,14 +3860,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3887,11 +3893,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3920,11 +3926,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3953,11 +3959,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3969,14 +3975,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3986,11 +3992,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4009,7 +4015,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4019,11 +4025,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4052,11 +4058,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4075,7 +4081,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4085,14 +4091,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4108,7 +4114,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4118,49 +4124,82 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>249</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4883.8599999999997</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>37</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>18</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>250</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>251</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5031.8599999999997</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
         <v>252</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>253</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>254</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4584,10 +4623,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -350,6 +350,9 @@
     <t>148.00</t>
   </si>
   <si>
+    <t>0.0000</t>
+  </si>
+  <si>
     <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -767,7 +770,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 10:20 PM</t>
+    <t>Friday, 12 September, 2025 10:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2365,7 +2368,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2379,10 +2382,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2391,7 +2394,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2408,11 +2411,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>90</v>
@@ -2424,7 +2427,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2441,11 +2444,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2457,7 +2460,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2474,11 +2477,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2490,7 +2493,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2507,11 +2510,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2523,7 +2526,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2540,11 +2543,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2556,7 +2559,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2573,11 +2576,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2589,7 +2592,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2606,11 +2609,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2622,7 +2625,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2655,7 +2658,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2672,11 +2675,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2688,7 +2691,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2709,7 +2712,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2721,14 +2724,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2742,7 +2745,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>48</v>
@@ -2754,7 +2757,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2771,11 +2774,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2787,7 +2790,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2804,11 +2807,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2820,7 +2823,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2837,11 +2840,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2853,7 +2856,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2870,11 +2873,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2886,7 +2889,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2907,7 +2910,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2919,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2936,11 +2939,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2952,14 +2955,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2969,11 +2972,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2985,7 +2988,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3002,11 +3005,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -3018,7 +3021,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3039,7 +3042,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3051,14 +3054,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3068,7 +3071,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3084,7 +3087,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3105,7 +3108,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3117,7 +3120,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3134,11 +3137,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3150,7 +3153,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3167,11 +3170,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3183,7 +3186,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3200,11 +3203,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3216,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3237,7 +3240,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3249,7 +3252,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3266,11 +3269,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3282,7 +3285,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3299,11 +3302,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3315,7 +3318,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3332,11 +3335,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3348,7 +3351,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3381,7 +3384,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3398,11 +3401,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3414,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,11 +3434,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>102</v>
@@ -3447,7 +3450,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3464,11 +3467,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3480,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,14 +3500,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3513,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3530,11 +3533,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3546,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,11 +3566,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3579,7 +3582,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3596,11 +3599,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3612,14 +3615,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,7 +3632,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3645,14 +3648,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3662,11 +3665,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3678,14 +3681,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3695,11 +3698,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3711,7 +3714,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3728,11 +3731,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>22</v>
@@ -3744,14 +3747,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3761,11 +3764,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3777,7 +3780,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3794,14 +3797,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,7 +3813,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3827,7 +3830,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3843,7 +3846,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3860,11 +3863,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -3876,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3893,11 +3896,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3909,7 +3912,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3926,11 +3929,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3942,14 +3945,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3959,11 +3962,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3975,14 +3978,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4008,14 +4011,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4025,11 +4028,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4041,7 +4044,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4058,11 +4061,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4074,14 +4077,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4091,11 +4094,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4107,14 +4110,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4124,11 +4127,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>22</v>
@@ -4140,7 +4143,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4157,11 +4160,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4169,13 +4172,13 @@
     </row>
     <row r="91" ht="25.5" customHeight="1">
       <c r="P91" s="13">
-        <v>5031.8599999999997</v>
+        <v>4883.8599999999997</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
       <c t="s" r="A92" s="14">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -4183,13 +4186,13 @@
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c t="s" r="G92" s="15">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="16"/>
       <c t="s" r="K92" s="17">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -515,12 +515,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -770,7 +773,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 10:29 PM</t>
+    <t>Friday, 12 September, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3028,7 +3031,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3061,7 +3064,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3104,14 +3107,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3120,28 +3123,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3153,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3170,14 +3173,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3199,15 +3202,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3219,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,11 +3239,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3252,14 +3255,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,14 +3272,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3285,14 +3288,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3302,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,14 +3338,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3358,7 +3361,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3368,14 +3371,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3391,7 +3394,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,11 +3404,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3417,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,14 +3437,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>162</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3533,14 +3536,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,28 +3552,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3582,14 +3585,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,11 +3602,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3615,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,14 +3635,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3648,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3665,14 +3668,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3681,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,11 +3701,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3764,14 +3767,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3787,7 +3790,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3797,14 +3800,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>227</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3813,7 +3816,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3830,14 +3833,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>80</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3929,11 +3932,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3945,14 +3948,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3962,11 +3965,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3995,11 +3998,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4018,7 +4021,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4044,14 +4047,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4084,7 +4087,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4094,11 +4097,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4127,14 +4130,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4160,49 +4163,82 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>251</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>37</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>18</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>252</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4883.8599999999997</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>253</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4907.8599999999997</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
         <v>254</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
         <v>255</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>256</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4631,10 +4667,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -773,7 +773,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 10:30 PM</t>
+    <t>Friday, 12 September, 2025 10:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -773,7 +773,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 10:39 PM</t>
+    <t>Friday, 12 September, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -314,6 +314,15 @@
     <t>31.3500</t>
   </si>
   <si>
+    <t>EUCARBON 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>EUTHYROX 50MCG 50 TAB</t>
   </si>
   <si>
@@ -773,7 +782,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 10:45 PM</t>
+    <t>Friday, 12 September, 2025 11:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2239,7 +2248,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2249,14 +2258,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2265,14 +2274,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2282,11 +2291,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2298,14 +2307,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2315,14 +2324,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2331,14 +2340,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2355,7 +2364,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2371,7 +2380,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2388,7 +2397,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2421,7 +2430,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2437,13 +2446,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2454,7 +2463,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2476,7 +2485,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2503,7 +2512,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2536,7 +2545,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2569,7 +2578,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2586,7 +2595,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2602,7 +2611,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2619,7 +2628,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2645,11 +2654,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,11 +2687,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2701,7 +2710,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2711,11 +2720,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2744,14 +2753,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2767,7 +2776,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2800,7 +2809,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2817,7 +2826,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2833,7 +2842,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2866,7 +2875,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2899,7 +2908,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,14 +2984,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2991,14 +3000,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3015,7 +3024,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3031,7 +3040,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3041,14 +3050,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3057,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,11 +3083,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3123,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,24 +3165,24 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3196,7 +3205,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3222,7 +3231,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3235,15 +3244,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3262,7 +3271,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,7 +3281,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3295,7 +3304,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3361,7 +3370,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,14 +3380,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,11 +3446,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3460,7 +3469,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3479,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3495,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3510,7 +3519,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3526,7 +3535,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>162</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3578,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,28 +3594,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3618,14 +3627,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3658,7 +3667,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3672,10 +3681,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,14 +3726,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,11 +3743,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3774,7 +3783,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3790,7 +3799,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,14 +3809,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,14 +3842,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>228</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,7 +3858,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>80</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,7 +3891,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3922,7 +3931,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3939,7 +3948,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3955,7 +3964,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3988,7 +3997,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,11 +4007,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,11 +4040,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4080,14 +4089,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4097,11 +4106,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4130,11 +4139,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4146,14 +4155,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4163,14 +4172,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4179,14 +4188,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4196,49 +4205,82 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4907.8599999999997</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>254</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>37</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>18</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>255</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>256</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4942.5100000000002</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>257</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>258</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>259</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4672,10 +4714,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -437,6 +437,12 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -489,6 +495,15 @@
   </si>
   <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
   </si>
   <si>
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
@@ -2743,7 +2758,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,7 +2768,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2776,7 +2791,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,14 +2801,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2802,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,14 +2867,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2885,11 +2900,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2901,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,11 +2933,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2934,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3000,14 +3015,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,11 +3032,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3033,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,14 +3065,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,7 +3098,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3116,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,14 +3147,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3197,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,31 +3213,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3238,24 +3253,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,31 +3279,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3297,28 +3312,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3370,7 +3385,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,7 +3395,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3403,7 +3418,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,11 +3461,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,14 +3527,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,14 +3560,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>165</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,14 +3609,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,14 +3626,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,31 +3642,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,28 +3675,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3693,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,14 +3725,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3733,7 +3748,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,11 +3758,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3759,14 +3774,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3780,10 +3795,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3809,14 +3824,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3825,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3842,11 +3857,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3858,7 +3873,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3875,14 +3890,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>231</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3891,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3908,14 +3923,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,7 +3939,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3941,14 +3956,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3974,14 +3989,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4007,14 +4022,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4040,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4056,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4073,11 +4088,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4106,11 +4121,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4139,11 +4154,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4155,14 +4170,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4172,11 +4187,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4188,14 +4203,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>223</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4205,14 +4220,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4221,14 +4236,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4238,49 +4253,115 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4942.5100000000002</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>257</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>228</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>18</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>118</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>258</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c t="s" r="Q93" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>259</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>37</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>18</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>260</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5138.5100000000002</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>262</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>263</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>264</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4719,10 +4800,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -797,7 +797,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 11:06 PM</t>
+    <t>Friday, 12 September, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-12_00-00.xlsx
+++ b/DaySale_2025-09-12_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADRENOCORTINE 1MG/ML I.M. AMP.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -62,9 +74,6 @@
     <t>ALPHATHROMB 5MG TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -248,6 +257,15 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -281,9 +299,6 @@
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -362,6 +377,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -383,12 +407,6 @@
     <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -521,9 +539,6 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -590,6 +605,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -641,6 +665,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -719,7 +752,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -797,7 +830,19 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 12 September, 2025 11:11 PM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Friday, 12 September, 2025 11:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1455,7 +1500,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1464,31 +1509,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1497,31 +1542,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1530,14 +1575,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1547,14 +1592,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1563,14 +1608,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1580,14 +1625,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1603,7 +1648,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1620,7 +1665,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1636,7 +1681,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1653,7 +1698,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1662,14 +1707,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1679,14 +1724,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1695,20 +1740,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1719,7 +1764,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1735,13 +1780,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1752,7 +1797,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1761,31 +1806,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1794,31 +1839,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1827,14 +1872,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1851,7 +1896,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1867,7 +1912,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1877,14 +1922,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1893,14 +1938,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1917,7 +1962,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1933,7 +1978,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1950,7 +1995,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1966,7 +2011,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1976,14 +2021,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1992,14 +2037,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2009,14 +2054,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2025,14 +2070,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2042,14 +2087,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2058,14 +2103,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2075,14 +2120,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2091,14 +2136,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2108,14 +2153,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2124,14 +2169,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2141,14 +2186,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2157,14 +2202,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2174,14 +2219,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2190,14 +2235,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2207,14 +2252,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2230,24 +2275,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2256,31 +2301,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2289,14 +2334,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,14 +2351,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2322,14 +2367,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2339,14 +2384,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2355,14 +2400,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2372,14 +2417,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2388,14 +2433,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2405,14 +2450,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2421,14 +2466,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2438,14 +2483,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2454,14 +2499,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2471,14 +2516,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2487,31 +2532,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2520,14 +2565,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2537,14 +2582,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2553,7 +2598,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2566,18 +2611,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2586,14 +2631,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2603,14 +2648,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2626,7 +2671,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2643,7 +2688,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2659,7 +2704,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2676,7 +2721,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2692,7 +2737,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2702,14 +2747,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2718,14 +2763,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2735,14 +2780,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2751,14 +2796,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2768,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2784,7 +2829,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2801,14 +2846,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2817,14 +2862,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2834,14 +2879,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2850,14 +2895,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2867,14 +2912,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2890,7 +2935,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,14 +2945,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2923,7 +2968,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2940,7 +2985,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2956,7 +3001,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2973,7 +3018,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2989,7 +3034,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,14 +3044,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3015,14 +3060,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,14 +3077,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3048,14 +3093,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,14 +3126,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,14 +3143,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3114,14 +3159,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,14 +3176,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3147,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,14 +3209,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3187,7 +3232,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3213,14 +3258,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,14 +3275,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3246,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3279,31 +3324,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3319,24 +3364,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3345,7 +3390,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3358,18 +3403,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3378,31 +3423,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3456,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3473,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3451,7 +3496,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3484,7 +3529,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,14 +3539,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3510,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,14 +3605,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3638,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3616,7 +3661,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3671,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,14 +3737,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,31 +3753,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,31 +3786,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,31 +3819,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3814,24 +3859,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3853,7 +3898,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3864,7 +3909,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3880,13 +3925,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3897,7 +3942,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3913,24 +3958,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3939,31 +3984,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3972,31 +4017,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,31 +4050,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,31 +4083,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,31 +4116,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4104,31 +4149,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4137,31 +4182,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4177,24 +4222,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4203,31 +4248,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4236,31 +4281,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4269,31 +4314,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4302,66 +4347,231 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>265</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5138.5100000000002</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>262</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>263</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>264</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>21</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>229</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>266</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>267</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>21</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>229</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>268</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>239</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>21</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>126</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>270</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>40</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>21</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>271</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>273</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>274</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>21</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>275</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5465.2299999999996</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>277</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>278</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>279</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4810,10 +5020,35 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
